--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C191D0-A945-43AE-909E-5635F23C9957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF37CD7-7B66-41B8-887C-24227FACF695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
     <sheet name="MarketShare" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:AD2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -740,33 +740,43 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <f>H13/100</f>
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" ref="I6:Q6" si="0">I13/100</f>
         <v>0</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6">
@@ -785,28 +795,28 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="X6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="Z6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AC6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="AD6">
-        <v>95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -877,25 +887,25 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>60.35</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD7">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -962,28 +972,28 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="2">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0.45</v>
+      </c>
+      <c r="Y8">
+        <v>1.0000000000000001E-7</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>0</v>
       </c>
     </row>
@@ -1055,25 +1065,25 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <v>60.35</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="Y9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="Z9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AA9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AB9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AC9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
       <c r="AD9">
-        <v>80.75</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -1140,28 +1150,28 @@
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>80.75</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.8075</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
         <v>0</v>
       </c>
     </row>
@@ -1233,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1248,14 +1258,61 @@
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="AD11">
         <v>0</v>
       </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="17" spans="10:30" x14ac:dyDescent="0.25">
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF37CD7-7B66-41B8-887C-24227FACF695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F6123-9FB1-4A07-9992-4265529E13AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -456,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,73 +490,139 @@
         <v>2018</v>
       </c>
       <c r="I1">
+        <v>2018.5</v>
+      </c>
+      <c r="J1">
         <v>2019</v>
       </c>
-      <c r="J1">
+      <c r="K1">
+        <v>2019.5</v>
+      </c>
+      <c r="L1">
         <v>2020</v>
       </c>
-      <c r="K1">
+      <c r="M1">
+        <v>2020.5</v>
+      </c>
+      <c r="N1">
         <v>2021</v>
       </c>
-      <c r="L1">
+      <c r="O1">
+        <v>2021.5</v>
+      </c>
+      <c r="P1">
         <v>2022</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
+        <v>2022.5</v>
+      </c>
+      <c r="R1">
         <v>2023</v>
       </c>
-      <c r="N1">
+      <c r="S1">
+        <v>2023.5</v>
+      </c>
+      <c r="T1">
         <v>2024</v>
       </c>
-      <c r="O1">
+      <c r="U1">
+        <v>2024.5</v>
+      </c>
+      <c r="V1">
         <v>2025</v>
       </c>
-      <c r="P1">
+      <c r="W1">
+        <v>2025.5</v>
+      </c>
+      <c r="X1">
         <v>2026</v>
       </c>
-      <c r="Q1">
+      <c r="Y1">
+        <v>2026.5</v>
+      </c>
+      <c r="Z1">
         <v>2027</v>
       </c>
-      <c r="R1">
+      <c r="AA1">
+        <v>2027.5</v>
+      </c>
+      <c r="AB1">
         <v>2028</v>
       </c>
-      <c r="S1">
+      <c r="AC1">
+        <v>2028.5</v>
+      </c>
+      <c r="AD1">
         <v>2029</v>
       </c>
-      <c r="T1">
+      <c r="AE1">
+        <v>2029.5</v>
+      </c>
+      <c r="AF1">
         <v>2030</v>
       </c>
-      <c r="U1">
+      <c r="AG1">
+        <v>2030.5</v>
+      </c>
+      <c r="AH1">
         <v>2031</v>
       </c>
-      <c r="V1">
+      <c r="AI1">
+        <v>2031.5</v>
+      </c>
+      <c r="AJ1">
         <v>2032</v>
       </c>
-      <c r="W1">
+      <c r="AK1">
+        <v>2032.5</v>
+      </c>
+      <c r="AL1">
         <v>2033</v>
       </c>
-      <c r="X1">
+      <c r="AM1">
+        <v>2033.5</v>
+      </c>
+      <c r="AN1">
         <v>2034</v>
       </c>
-      <c r="Y1">
+      <c r="AO1">
+        <v>2034.5</v>
+      </c>
+      <c r="AP1">
         <v>2035</v>
       </c>
-      <c r="Z1">
+      <c r="AQ1">
+        <v>2035.5</v>
+      </c>
+      <c r="AR1">
         <v>2036</v>
       </c>
-      <c r="AA1">
+      <c r="AS1">
+        <v>2036.5</v>
+      </c>
+      <c r="AT1">
         <v>2037</v>
       </c>
-      <c r="AB1">
+      <c r="AU1">
+        <v>2037.5</v>
+      </c>
+      <c r="AV1">
         <v>2038</v>
       </c>
-      <c r="AC1">
+      <c r="AW1">
+        <v>2038.5</v>
+      </c>
+      <c r="AX1">
         <v>2039</v>
       </c>
-      <c r="AD1">
+      <c r="AY1">
+        <v>2039.5</v>
+      </c>
+      <c r="AZ1">
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -587,8 +653,20 @@
       <c r="N2">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0.6</v>
+      </c>
+      <c r="R2">
+        <v>0.6</v>
+      </c>
+      <c r="T2">
+        <v>0.6</v>
+      </c>
+      <c r="V2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -607,32 +685,95 @@
       <c r="G3">
         <v>15</v>
       </c>
-      <c r="P3">
-        <v>0.75</v>
-      </c>
-      <c r="R3">
-        <v>0.75</v>
-      </c>
-      <c r="T3">
-        <v>0.75</v>
-      </c>
-      <c r="V3">
-        <v>0.75</v>
-      </c>
       <c r="X3">
         <v>0.75</v>
       </c>
+      <c r="Y3">
+        <v>0.75</v>
+      </c>
       <c r="Z3">
         <v>0.75</v>
       </c>
+      <c r="AA3">
+        <v>0.75</v>
+      </c>
       <c r="AB3">
         <v>0.75</v>
       </c>
+      <c r="AC3">
+        <v>0.75</v>
+      </c>
       <c r="AD3">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <v>0.75</v>
+      </c>
+      <c r="AF3">
+        <v>0.75</v>
+      </c>
+      <c r="AG3">
+        <v>0.75</v>
+      </c>
+      <c r="AH3">
+        <v>0.75</v>
+      </c>
+      <c r="AI3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ3">
+        <v>0.75</v>
+      </c>
+      <c r="AK3">
+        <v>0.75</v>
+      </c>
+      <c r="AL3">
+        <v>0.75</v>
+      </c>
+      <c r="AM3">
+        <v>0.75</v>
+      </c>
+      <c r="AN3">
+        <v>0.75</v>
+      </c>
+      <c r="AO3">
+        <v>0.75</v>
+      </c>
+      <c r="AP3">
+        <v>0.75</v>
+      </c>
+      <c r="AQ3">
+        <v>0.75</v>
+      </c>
+      <c r="AR3">
+        <v>0.75</v>
+      </c>
+      <c r="AS3">
+        <v>0.75</v>
+      </c>
+      <c r="AT3">
+        <v>0.75</v>
+      </c>
+      <c r="AU3">
+        <v>0.75</v>
+      </c>
+      <c r="AV3">
+        <v>0.75</v>
+      </c>
+      <c r="AW3">
+        <v>0.75</v>
+      </c>
+      <c r="AX3">
+        <v>0.75</v>
+      </c>
+      <c r="AY3">
+        <v>0.75</v>
+      </c>
+      <c r="AZ3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -651,32 +792,95 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="P4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>0.5</v>
-      </c>
-      <c r="T4">
-        <v>0.5</v>
-      </c>
-      <c r="V4">
-        <v>0.5</v>
-      </c>
       <c r="X4">
         <v>0.5</v>
       </c>
+      <c r="Y4">
+        <v>0.5</v>
+      </c>
       <c r="Z4">
         <v>0.5</v>
       </c>
+      <c r="AA4">
+        <v>0.5</v>
+      </c>
       <c r="AB4">
         <v>0.5</v>
       </c>
+      <c r="AC4">
+        <v>0.5</v>
+      </c>
       <c r="AD4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4">
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.5</v>
+      </c>
+      <c r="AI4">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4">
+        <v>0.5</v>
+      </c>
+      <c r="AK4">
+        <v>0.5</v>
+      </c>
+      <c r="AL4">
+        <v>0.5</v>
+      </c>
+      <c r="AM4">
+        <v>0.5</v>
+      </c>
+      <c r="AN4">
+        <v>0.5</v>
+      </c>
+      <c r="AO4">
+        <v>0.5</v>
+      </c>
+      <c r="AP4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ4">
+        <v>0.5</v>
+      </c>
+      <c r="AR4">
+        <v>0.5</v>
+      </c>
+      <c r="AS4">
+        <v>0.5</v>
+      </c>
+      <c r="AT4">
+        <v>0.5</v>
+      </c>
+      <c r="AU4">
+        <v>0.5</v>
+      </c>
+      <c r="AV4">
+        <v>0.5</v>
+      </c>
+      <c r="AW4">
+        <v>0.5</v>
+      </c>
+      <c r="AX4">
+        <v>0.5</v>
+      </c>
+      <c r="AY4">
+        <v>0.5</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -695,32 +899,95 @@
       <c r="G5">
         <v>65</v>
       </c>
-      <c r="P5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>0.5</v>
-      </c>
-      <c r="T5">
-        <v>0.5</v>
-      </c>
-      <c r="V5">
-        <v>0.5</v>
-      </c>
       <c r="X5">
         <v>0.5</v>
       </c>
+      <c r="Y5">
+        <v>0.5</v>
+      </c>
       <c r="Z5">
         <v>0.5</v>
       </c>
+      <c r="AA5">
+        <v>0.5</v>
+      </c>
       <c r="AB5">
         <v>0.5</v>
       </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
       <c r="AD5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE5">
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <v>0.5</v>
+      </c>
+      <c r="AH5">
+        <v>0.5</v>
+      </c>
+      <c r="AI5">
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
+        <v>0.5</v>
+      </c>
+      <c r="AK5">
+        <v>0.5</v>
+      </c>
+      <c r="AL5">
+        <v>0.5</v>
+      </c>
+      <c r="AM5">
+        <v>0.5</v>
+      </c>
+      <c r="AN5">
+        <v>0.5</v>
+      </c>
+      <c r="AO5">
+        <v>0.5</v>
+      </c>
+      <c r="AP5">
+        <v>0.5</v>
+      </c>
+      <c r="AQ5">
+        <v>0.5</v>
+      </c>
+      <c r="AR5">
+        <v>0.5</v>
+      </c>
+      <c r="AS5">
+        <v>0.5</v>
+      </c>
+      <c r="AT5">
+        <v>0.5</v>
+      </c>
+      <c r="AU5">
+        <v>0.5</v>
+      </c>
+      <c r="AV5">
+        <v>0.5</v>
+      </c>
+      <c r="AW5">
+        <v>0.5</v>
+      </c>
+      <c r="AX5">
+        <v>0.5</v>
+      </c>
+      <c r="AY5">
+        <v>0.5</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -743,83 +1010,83 @@
         <f>H13/100</f>
         <v>0</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:Q6" si="0">I13/100</f>
-        <v>0</v>
-      </c>
       <c r="J6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J6:Z6" si="0">J13/100</f>
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="N6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="P6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>0.7</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>0.95</v>
       </c>
-      <c r="Y6">
+      <c r="AP6">
         <v>0.95</v>
       </c>
-      <c r="Z6">
+      <c r="AR6">
         <v>0.95</v>
       </c>
-      <c r="AA6">
+      <c r="AT6">
         <v>0.95</v>
       </c>
-      <c r="AB6">
+      <c r="AV6">
         <v>0.95</v>
       </c>
-      <c r="AC6">
+      <c r="AX6">
         <v>0.95</v>
       </c>
-      <c r="AD6">
+      <c r="AZ6">
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -841,74 +1108,74 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
       <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
         <v>0.60350000000000004</v>
       </c>
-      <c r="Y7">
+      <c r="AP7">
         <v>0.8075</v>
       </c>
-      <c r="Z7">
+      <c r="AR7">
         <v>0.8075</v>
       </c>
-      <c r="AA7">
+      <c r="AT7">
         <v>0.8075</v>
       </c>
-      <c r="AB7">
+      <c r="AV7">
         <v>0.8075</v>
       </c>
-      <c r="AC7">
+      <c r="AX7">
         <v>0.8075</v>
       </c>
-      <c r="AD7">
+      <c r="AZ7">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -930,74 +1197,87 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="L8" s="2">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
+      <c r="O8" s="2"/>
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2">
         <v>0</v>
       </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
+      <c r="U8" s="2"/>
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2"/>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
         <v>0.45</v>
       </c>
-      <c r="Y8">
+      <c r="AP8">
         <v>1.0000000000000001E-7</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1019,74 +1299,74 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>0</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
         <v>0.60350000000000004</v>
       </c>
-      <c r="Y9">
+      <c r="AP9">
         <v>0.8075</v>
       </c>
-      <c r="Z9">
+      <c r="AR9">
         <v>0.8075</v>
       </c>
-      <c r="AA9">
+      <c r="AT9">
         <v>0.8075</v>
       </c>
-      <c r="AB9">
+      <c r="AV9">
         <v>0.8075</v>
       </c>
-      <c r="AC9">
+      <c r="AX9">
         <v>0.8075</v>
       </c>
-      <c r="AD9">
+      <c r="AZ9">
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1108,74 +1388,87 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
+      <c r="O10" s="2"/>
       <c r="P10" s="2">
         <v>0</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2">
         <v>0</v>
       </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2">
         <v>0</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
+      <c r="U10" s="2"/>
       <c r="V10" s="2">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="W10" s="2"/>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2"/>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
         <v>0.8075</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1197,76 +1490,74 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
         <v>0.45</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
         <v>0.45</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1286,10 +1577,30 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-    </row>
-    <row r="17" spans="10:30" x14ac:dyDescent="0.25">
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+    </row>
+    <row r="17" spans="12:52" x14ac:dyDescent="0.25">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1309,6 +1620,28 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,15 +1651,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F2D99-6D6A-CD4F-83A8-836F61647DE0}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AV1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1340,73 +1673,139 @@
         <v>2018</v>
       </c>
       <c r="E1">
+        <v>2018.5</v>
+      </c>
+      <c r="F1">
         <v>2019</v>
       </c>
-      <c r="F1">
+      <c r="G1">
+        <v>2019.5</v>
+      </c>
+      <c r="H1">
         <v>2020</v>
       </c>
-      <c r="G1">
+      <c r="I1">
+        <v>2020.5</v>
+      </c>
+      <c r="J1">
         <v>2021</v>
       </c>
-      <c r="H1">
+      <c r="K1">
+        <v>2021.5</v>
+      </c>
+      <c r="L1">
         <v>2022</v>
       </c>
-      <c r="I1">
+      <c r="M1">
+        <v>2022.5</v>
+      </c>
+      <c r="N1">
         <v>2023</v>
       </c>
-      <c r="J1">
+      <c r="O1">
+        <v>2023.5</v>
+      </c>
+      <c r="P1">
         <v>2024</v>
       </c>
-      <c r="K1">
+      <c r="Q1">
+        <v>2024.5</v>
+      </c>
+      <c r="R1">
         <v>2025</v>
       </c>
-      <c r="L1">
+      <c r="S1">
+        <v>2025.5</v>
+      </c>
+      <c r="T1">
         <v>2026</v>
       </c>
-      <c r="M1">
+      <c r="U1">
+        <v>2026.5</v>
+      </c>
+      <c r="V1">
         <v>2027</v>
       </c>
-      <c r="N1">
+      <c r="W1">
+        <v>2027.5</v>
+      </c>
+      <c r="X1">
         <v>2028</v>
       </c>
-      <c r="O1">
+      <c r="Y1">
+        <v>2028.5</v>
+      </c>
+      <c r="Z1">
         <v>2029</v>
       </c>
-      <c r="P1">
+      <c r="AA1">
+        <v>2029.5</v>
+      </c>
+      <c r="AB1">
         <v>2030</v>
       </c>
-      <c r="Q1">
+      <c r="AC1">
+        <v>2030.5</v>
+      </c>
+      <c r="AD1">
         <v>2031</v>
       </c>
-      <c r="R1">
+      <c r="AE1">
+        <v>2031.5</v>
+      </c>
+      <c r="AF1">
         <v>2032</v>
       </c>
-      <c r="S1">
+      <c r="AG1">
+        <v>2032.5</v>
+      </c>
+      <c r="AH1">
         <v>2033</v>
       </c>
-      <c r="T1">
+      <c r="AI1">
+        <v>2033.5</v>
+      </c>
+      <c r="AJ1">
         <v>2034</v>
       </c>
-      <c r="U1">
+      <c r="AK1">
+        <v>2034.5</v>
+      </c>
+      <c r="AL1">
         <v>2035</v>
       </c>
-      <c r="V1">
+      <c r="AM1">
+        <v>2035.5</v>
+      </c>
+      <c r="AN1">
         <v>2036</v>
       </c>
-      <c r="W1">
+      <c r="AO1">
+        <v>2036.5</v>
+      </c>
+      <c r="AP1">
         <v>2037</v>
       </c>
-      <c r="X1">
+      <c r="AQ1">
+        <v>2037.5</v>
+      </c>
+      <c r="AR1">
         <v>2038</v>
       </c>
-      <c r="Y1">
+      <c r="AS1">
+        <v>2038.5</v>
+      </c>
+      <c r="AT1">
         <v>2039</v>
       </c>
-      <c r="Z1">
+      <c r="AU1">
+        <v>2039.5</v>
+      </c>
+      <c r="AV1">
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1416,30 +1815,6 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
       <c r="T2">
         <v>1</v>
       </c>
@@ -1461,8 +1836,74 @@
       <c r="Z2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1496,8 +1937,32 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1508,7 +1973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1519,7 +1984,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1541,7 +2006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +2017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Documents\GitHub\ntd-model-sch\sch_simulation\data\SCH_params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F6123-9FB1-4A07-9992-4265529E13AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E914D-A768-F44F-AD95-6C038D0FBEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="49360" windowHeight="19120" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
   <sheets>
     <sheet name="Platform Coverage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -97,12 +97,15 @@
   <si>
     <t>Old Product B (SOC)</t>
   </si>
+  <si>
+    <t>Vector Control</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +115,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,13 +469,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +633,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -642,31 +653,28 @@
         <v>15</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="J2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="L2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="N2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="R2">
-        <v>0.6</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="T2">
-        <v>0.6</v>
-      </c>
-      <c r="V2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -686,94 +694,94 @@
         <v>15</v>
       </c>
       <c r="X3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="Y3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="Z3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AB3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AC3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AD3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AE3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AF3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AG3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AH3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AI3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AJ3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AK3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AL3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AM3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AN3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AO3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AQ3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AU3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AV3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AW3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AX3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AY3">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AZ3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -792,95 +800,96 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="X4">
-        <v>0.5</v>
-      </c>
-      <c r="Y4">
-        <v>0.5</v>
-      </c>
-      <c r="Z4">
-        <v>0.5</v>
-      </c>
-      <c r="AA4">
-        <v>0.5</v>
-      </c>
-      <c r="AB4">
-        <v>0.5</v>
-      </c>
-      <c r="AC4">
-        <v>0.5</v>
-      </c>
-      <c r="AD4">
-        <v>0.5</v>
-      </c>
-      <c r="AE4">
-        <v>0.5</v>
-      </c>
-      <c r="AF4">
-        <v>0.5</v>
-      </c>
-      <c r="AG4">
-        <v>0.5</v>
-      </c>
-      <c r="AH4">
-        <v>0.5</v>
-      </c>
-      <c r="AI4">
-        <v>0.5</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5</v>
-      </c>
-      <c r="AK4">
-        <v>0.5</v>
-      </c>
-      <c r="AL4">
-        <v>0.5</v>
-      </c>
-      <c r="AM4">
-        <v>0.5</v>
-      </c>
-      <c r="AN4">
-        <v>0.5</v>
-      </c>
-      <c r="AO4">
-        <v>0.5</v>
-      </c>
-      <c r="AP4">
-        <v>0.5</v>
-      </c>
-      <c r="AQ4">
-        <v>0.5</v>
-      </c>
-      <c r="AR4">
-        <v>0.5</v>
-      </c>
-      <c r="AS4">
-        <v>0.5</v>
-      </c>
-      <c r="AT4">
-        <v>0.5</v>
-      </c>
-      <c r="AU4">
-        <v>0.5</v>
-      </c>
-      <c r="AV4">
-        <v>0.5</v>
-      </c>
-      <c r="AW4">
-        <v>0.5</v>
-      </c>
-      <c r="AX4">
-        <v>0.5</v>
-      </c>
-      <c r="AY4">
-        <v>0.5</v>
-      </c>
-      <c r="AZ4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AO4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AR4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AS4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AV4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AW4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AX4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AZ4" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -899,95 +908,96 @@
       <c r="G5">
         <v>65</v>
       </c>
-      <c r="X5">
-        <v>0.5</v>
-      </c>
-      <c r="Y5">
-        <v>0.5</v>
-      </c>
-      <c r="Z5">
-        <v>0.5</v>
-      </c>
-      <c r="AA5">
-        <v>0.5</v>
-      </c>
-      <c r="AB5">
-        <v>0.5</v>
-      </c>
-      <c r="AC5">
-        <v>0.5</v>
-      </c>
-      <c r="AD5">
-        <v>0.5</v>
-      </c>
-      <c r="AE5">
-        <v>0.5</v>
-      </c>
-      <c r="AF5">
-        <v>0.5</v>
-      </c>
-      <c r="AG5">
-        <v>0.5</v>
-      </c>
-      <c r="AH5">
-        <v>0.5</v>
-      </c>
-      <c r="AI5">
-        <v>0.5</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5</v>
-      </c>
-      <c r="AK5">
-        <v>0.5</v>
-      </c>
-      <c r="AL5">
-        <v>0.5</v>
-      </c>
-      <c r="AM5">
-        <v>0.5</v>
-      </c>
-      <c r="AN5">
-        <v>0.5</v>
-      </c>
-      <c r="AO5">
-        <v>0.5</v>
-      </c>
-      <c r="AP5">
-        <v>0.5</v>
-      </c>
-      <c r="AQ5">
-        <v>0.5</v>
-      </c>
-      <c r="AR5">
-        <v>0.5</v>
-      </c>
-      <c r="AS5">
-        <v>0.5</v>
-      </c>
-      <c r="AT5">
-        <v>0.5</v>
-      </c>
-      <c r="AU5">
-        <v>0.5</v>
-      </c>
-      <c r="AV5">
-        <v>0.5</v>
-      </c>
-      <c r="AW5">
-        <v>0.5</v>
-      </c>
-      <c r="AX5">
-        <v>0.5</v>
-      </c>
-      <c r="AY5">
-        <v>0.5</v>
-      </c>
-      <c r="AZ5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1185,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1366,7 +1376,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1567,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12">
+        <v>0.25</v>
+      </c>
+      <c r="Z12">
+        <v>0.25</v>
+      </c>
+      <c r="AB12">
+        <v>0.25</v>
+      </c>
+      <c r="AD12">
+        <v>0.25</v>
+      </c>
+      <c r="AF12">
+        <v>0.25</v>
+      </c>
+      <c r="AH12">
+        <v>0.25</v>
+      </c>
+      <c r="AJ12">
+        <v>0.25</v>
+      </c>
+      <c r="AL12">
+        <v>0.25</v>
+      </c>
+      <c r="AN12">
+        <v>0.25</v>
+      </c>
+      <c r="AP12">
+        <v>0.25</v>
+      </c>
+      <c r="AR12">
+        <v>0.25</v>
+      </c>
+      <c r="AT12">
+        <v>0.25</v>
+      </c>
+      <c r="AV12">
+        <v>0.25</v>
+      </c>
+      <c r="AX12">
+        <v>0.25</v>
+      </c>
+      <c r="AZ12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1600,7 +1660,7 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
     </row>
-    <row r="17" spans="12:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:52" x14ac:dyDescent="0.2">
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1653,13 +1713,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C7F2D99-6D6A-CD4F-83A8-836F61647DE0}">
   <dimension ref="A1:AV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AV1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AV3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1805,7 +1865,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1903,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1962,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1973,7 +2033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1984,7 +2044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2006,7 +2066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2017,7 +2077,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2E914D-A768-F44F-AD95-6C038D0FBEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF7EDD4-84EA-9246-BE4B-3E86D05470A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="49360" windowHeight="19120" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
   <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,6 +671,9 @@
         <v>0.73599999999999999</v>
       </c>
       <c r="T2">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="V2">
         <v>0.73599999999999999</v>
       </c>
     </row>

--- a/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
+++ b/sch_simulation/data/SCH_params/mansoni_coverage_scenario_3a_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewgraham/Dropbox/ntd-model-sch/sch_simulation/data/Scenarios_8_3_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF7EDD4-84EA-9246-BE4B-3E86D05470A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1564FE0-80D9-9246-BF4F-702FFFDA7472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="49360" windowHeight="19120" xr2:uid="{9C7DD76D-309C-7542-91A1-AE564CC5053D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>Country/Region</t>
   </si>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43727F06-576E-E842-A2BC-01D7C17376ED}">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:AZ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3">
@@ -897,107 +897,98 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
-      </c>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>0.61299999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>H12/100</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:Z5" si="0">J12/100</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0.7</v>
+      </c>
+      <c r="AN5">
+        <v>0.95</v>
+      </c>
+      <c r="AP5">
+        <v>0.95</v>
+      </c>
+      <c r="AR5">
+        <v>0.95</v>
+      </c>
+      <c r="AT5">
+        <v>0.95</v>
+      </c>
+      <c r="AV5">
+        <v>0.95</v>
+      </c>
+      <c r="AX5">
+        <v>0.95</v>
+      </c>
+      <c r="AZ5">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.2">
@@ -1011,52 +1002,42 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
       </c>
       <c r="H6">
-        <f>H13/100</f>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:Z6" si="0">J13/100</f>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB6">
@@ -1075,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.95</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="AP6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AR6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AT6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AV6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AX6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
       <c r="AZ6">
-        <v>0.95</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.2">
@@ -1107,85 +1088,98 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2"/>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>0.60350000000000004</v>
+        <v>0.45</v>
       </c>
       <c r="AP7">
-        <v>0.8075</v>
+        <v>1.0000000000000001E-7</v>
       </c>
       <c r="AR7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AV7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AX7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.2">
@@ -1196,16 +1190,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1213,81 +1207,68 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2"/>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>0.45</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="AP8">
-        <v>1.0000000000000001E-7</v>
+        <v>0.8075</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>0.8075</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.2">
@@ -1304,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1315,68 +1296,81 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2"/>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>0.60350000000000004</v>
+        <v>0.8075</v>
       </c>
       <c r="AP9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0.8075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.2">
@@ -1393,10 +1387,10 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1404,63 +1398,50 @@
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2"/>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>0.8075</v>
+        <v>0.45</v>
       </c>
       <c r="AP10">
         <v>0</v>
@@ -1475,236 +1456,147 @@
         <v>0</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AZ10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
         <v>20</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="X11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AN11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AX11">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="X12">
         <v>0.25</v>
       </c>
-      <c r="Z12">
-        <v>0.25</v>
-      </c>
-      <c r="AB12">
-        <v>0.25</v>
-      </c>
-      <c r="AD12">
-        <v>0.25</v>
-      </c>
-      <c r="AF12">
-        <v>0.25</v>
-      </c>
-      <c r="AH12">
-        <v>0.25</v>
-      </c>
-      <c r="AJ12">
-        <v>0.25</v>
-      </c>
-      <c r="AL12">
-        <v>0.25</v>
-      </c>
-      <c r="AN12">
-        <v>0.25</v>
-      </c>
-      <c r="AP12">
-        <v>0.25</v>
-      </c>
-      <c r="AR12">
-        <v>0.25</v>
-      </c>
-      <c r="AT12">
-        <v>0.25</v>
-      </c>
-      <c r="AV12">
-        <v>0.25</v>
-      </c>
-      <c r="AX12">
-        <v>0.25</v>
-      </c>
-      <c r="AZ12">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
-      <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
-      <c r="AL15" s="2"/>
-      <c r="AM15" s="2"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
-      <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-    </row>
-    <row r="17" spans="12:52" x14ac:dyDescent="0.2">
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2"/>
-      <c r="AS17" s="2"/>
-      <c r="AT17" s="2"/>
-      <c r="AU17" s="2"/>
-      <c r="AV17" s="2"/>
-      <c r="AW17" s="2"/>
-      <c r="AX17" s="2"/>
-      <c r="AY17" s="2"/>
-      <c r="AZ17" s="2"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
